--- a/Week1 Assignment.xlsx
+++ b/Week1 Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -357,9 +357,6 @@
 3) https://platform.openai.com/tokenizer -&gt; 8 Tokens, 37 Characters</t>
   </si>
   <si>
-    <t>Need help in finding this</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -410,12 +407,46 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>allenai/olmo-3.1-32b-instruct</t>
+  </si>
+  <si>
+    <t>$0.20/M input tokens
+$0.60/M output tokens</t>
+  </si>
+  <si>
+    <t>bytedance-seed/seedream-4.5</t>
+  </si>
+  <si>
+    <t>$0/M input tokens$9.581/M output tokens</t>
+  </si>
+  <si>
+    <t>google/gemini-3-flash-preview</t>
+  </si>
+  <si>
+    <t>$0.50/M input tokens$3/M output tokens</t>
+  </si>
+  <si>
+    <t>openai/gpt-5.2-chat</t>
+  </si>
+  <si>
+    <t>$1.75/M input tokens$14/M output tokens</t>
+  </si>
+  <si>
+    <t>openai/gpt-5.1-codex-max</t>
+  </si>
+  <si>
+    <t>$1.25/M input tokens$10/M output tokens</t>
+  </si>
+  <si>
+    <t>anthropic/claude-opus-4.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +465,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -478,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,6 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="70.5" customHeight="1">
@@ -962,48 +1000,73 @@
         <v>26</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27">
       <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
